--- a/excel/personal_tracker.xlsx
+++ b/excel/personal_tracker.xlsx
@@ -197,12 +197,12 @@
     <t>PAS4_200110_453_A01</t>
   </si>
   <si>
+    <t>PAS4_200110_455_A01</t>
+  </si>
+  <si>
     <t>PAS4_200110_456_A01</t>
   </si>
   <si>
-    <t>PAS4_200110_455_A01</t>
-  </si>
-  <si>
     <t>PAS4_200113_451_A01</t>
   </si>
   <si>
@@ -212,12 +212,12 @@
     <t>PAS4_200113_453_A01</t>
   </si>
   <si>
+    <t>PAS4_200114_452_A01</t>
+  </si>
+  <si>
     <t>PAS4_200114_453_A01</t>
   </si>
   <si>
-    <t>PAS4_200114_452_A01</t>
-  </si>
-  <si>
     <t>PAS4_200114_451_A01</t>
   </si>
   <si>
@@ -233,33 +233,33 @@
     <t>PAS4_200114_457_A01</t>
   </si>
   <si>
+    <t>PAS4_200116_451_A01</t>
+  </si>
+  <si>
     <t>PAS4_200116_453_A01</t>
   </si>
   <si>
-    <t>PAS4_200116_451_A01</t>
-  </si>
-  <si>
     <t>PAS4_200116_452_A01</t>
   </si>
   <si>
+    <t>PAS4_200116_455_A01</t>
+  </si>
+  <si>
+    <t>PAS4_200116_454_A01</t>
+  </si>
+  <si>
     <t>PAS4_200116_456_A01</t>
   </si>
   <si>
-    <t>PAS4_200116_455_A01</t>
-  </si>
-  <si>
-    <t>PAS4_200116_454_A01</t>
-  </si>
-  <si>
     <t>PAS4_200117_453_A01</t>
   </si>
   <si>
+    <t>PAS4_200117_451_A01</t>
+  </si>
+  <si>
     <t>PAS4_200117_452_A01</t>
   </si>
   <si>
-    <t>PAS4_200117_451_A01</t>
-  </si>
-  <si>
     <t>PAS4_200117_456_A01</t>
   </si>
   <si>
@@ -293,21 +293,21 @@
     <t>PAS4_200128_454_A01</t>
   </si>
   <si>
+    <t>PAS4_200128_455_A01</t>
+  </si>
+  <si>
     <t>PAS4_200128_453_A01</t>
   </si>
   <si>
-    <t>PAS4_200128_455_A01</t>
-  </si>
-  <si>
     <t>PAS4_200130_451_A01</t>
   </si>
   <si>
+    <t>PAS4_200130_453_A01</t>
+  </si>
+  <si>
     <t>PAS4_200130_452_A01</t>
   </si>
   <si>
-    <t>PAS4_200130_453_A01</t>
-  </si>
-  <si>
     <t>PAS4_200130_454_A01</t>
   </si>
   <si>
@@ -326,13 +326,16 @@
     <t>PAS4_200203_451_A01</t>
   </si>
   <si>
+    <t>PAS4_200203_452_A01</t>
+  </si>
+  <si>
+    <t>PAS4_200203_454_A01</t>
+  </si>
+  <si>
     <t>PAS4_200203_453_A01</t>
   </si>
   <si>
-    <t>PAS4_200203_454_A01</t>
-  </si>
-  <si>
-    <t>PAS4_200203_452_A01</t>
+    <t>PAS4_200204_452_A01</t>
   </si>
   <si>
     <t>PAS4_200204_451_A01</t>
@@ -341,9 +344,6 @@
     <t>PAS4_200204_453_A01</t>
   </si>
   <si>
-    <t>PAS4_200204_452_A01</t>
-  </si>
-  <si>
     <t>sagittal_region</t>
   </si>
   <si>
@@ -386,30 +386,33 @@
     <t>layer 3c</t>
   </si>
   <si>
+    <t>layer 2</t>
+  </si>
+  <si>
     <t>layer 1</t>
   </si>
   <si>
-    <t>layer 2</t>
-  </si>
-  <si>
     <t>layer 3a</t>
   </si>
   <si>
     <t>layer 3b</t>
   </si>
   <si>
+    <t>PAS4_200116_459_A01</t>
+  </si>
+  <si>
+    <t>PAS4_200116_458_A01</t>
+  </si>
+  <si>
     <t>PAS4_200116_457_A01</t>
   </si>
   <si>
-    <t>PAS4_200116_459_A01</t>
-  </si>
-  <si>
-    <t>PAS4_200116_458_A01</t>
-  </si>
-  <si>
     <t>PCS4_200121_451_A01</t>
   </si>
   <si>
+    <t>PAS4_200121_453_A01</t>
+  </si>
+  <si>
     <t>PAS4_200121_454_A01</t>
   </si>
   <si>
@@ -422,64 +425,61 @@
     <t>PAS4_200121_455_A01</t>
   </si>
   <si>
-    <t>PAS4_200121_453_A01</t>
+    <t>PCS4_200122_451_A01</t>
   </si>
   <si>
     <t>PCS4_200122_452_A01</t>
   </si>
   <si>
-    <t>PCS4_200122_451_A01</t>
+    <t>PCS4_200124_452_A01</t>
+  </si>
+  <si>
+    <t>PCS4_200124_453_A01</t>
+  </si>
+  <si>
+    <t>PCS4_200124_455_A01</t>
+  </si>
+  <si>
+    <t>PCS4_200124_456_A01</t>
   </si>
   <si>
     <t>PCS4_200124_457_A01</t>
   </si>
   <si>
-    <t>PCS4_200124_452_A01</t>
-  </si>
-  <si>
-    <t>PCS4_200124_456_A01</t>
-  </si>
-  <si>
-    <t>PCS4_200124_455_A01</t>
-  </si>
-  <si>
     <t>PCS4_200124_454_A01</t>
   </si>
   <si>
-    <t>PCS4_200124_453_A01</t>
-  </si>
-  <si>
     <t>PCS4_200124_451_A01</t>
   </si>
   <si>
+    <t>PCS4_200127_454_A01</t>
+  </si>
+  <si>
+    <t>PCS4_200127_452_A01</t>
+  </si>
+  <si>
     <t>PCS4_200127_453_A01</t>
   </si>
   <si>
-    <t>PCS4_200127_454_A01</t>
+    <t>PCS4_200127_455_A01</t>
   </si>
   <si>
     <t>PCS4_200127_451_A01</t>
   </si>
   <si>
-    <t>PCS4_200127_452_A01</t>
-  </si>
-  <si>
-    <t>PCS4_200127_455_A01</t>
+    <t>PAS4_200204_460_A01</t>
+  </si>
+  <si>
+    <t>PAS4_200204_456_A01</t>
+  </si>
+  <si>
+    <t>PAS4_200204_457_A01</t>
   </si>
   <si>
     <t>PAS4_200204_459_A01</t>
   </si>
   <si>
-    <t>PAS4_200204_456_A01</t>
-  </si>
-  <si>
-    <t>PAS4_200204_457_A01</t>
-  </si>
-  <si>
     <t>PAS4_200204_455_A01</t>
-  </si>
-  <si>
-    <t>PAS4_200204_460_A01</t>
   </si>
   <si>
     <t>PAS4_200204_454_A01</t>
@@ -1084,7 +1084,7 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -1116,7 +1116,7 @@
         <v>38</v>
       </c>
       <c r="C9">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -1244,7 +1244,7 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -1276,7 +1276,7 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -1468,7 +1468,7 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>2600</v>
+        <v>590</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -1480,10 +1480,10 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
         <v>71</v>
@@ -1500,7 +1500,7 @@
         <v>38</v>
       </c>
       <c r="C21">
-        <v>590</v>
+        <v>2600</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -1512,10 +1512,10 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
         <v>72</v>
@@ -1564,7 +1564,7 @@
         <v>38</v>
       </c>
       <c r="C23">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -1579,7 +1579,7 @@
         <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
         <v>74</v>
@@ -1596,7 +1596,7 @@
         <v>38</v>
       </c>
       <c r="C24">
-        <v>900</v>
+        <v>4.4</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -1608,7 +1608,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
         <v>51</v>
@@ -1617,7 +1617,7 @@
         <v>75</v>
       </c>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1628,7 +1628,7 @@
         <v>38</v>
       </c>
       <c r="C25">
-        <v>4.4</v>
+        <v>3000</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -1640,16 +1640,16 @@
         <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
         <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1692,7 +1692,7 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -1704,7 +1704,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
         <v>51</v>
@@ -1724,7 +1724,7 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -1736,7 +1736,7 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
         <v>51</v>
@@ -2108,7 +2108,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
@@ -2123,7 +2123,7 @@
         <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s">
         <v>91</v>
@@ -2140,7 +2140,7 @@
         <v>38</v>
       </c>
       <c r="C41">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="D41" t="s">
         <v>39</v>
@@ -2155,7 +2155,7 @@
         <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s">
         <v>92</v>
@@ -2204,7 +2204,7 @@
         <v>38</v>
       </c>
       <c r="C43">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="D43" t="s">
         <v>39</v>
@@ -2236,7 +2236,7 @@
         <v>38</v>
       </c>
       <c r="C44">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="D44" t="s">
         <v>39</v>
@@ -2460,7 +2460,7 @@
         <v>38</v>
       </c>
       <c r="C51">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="D51" t="s">
         <v>39</v>
@@ -2524,7 +2524,7 @@
         <v>38</v>
       </c>
       <c r="C53">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="D53" t="s">
         <v>39</v>
@@ -2556,7 +2556,7 @@
         <v>38</v>
       </c>
       <c r="C54">
-        <v>900</v>
+        <v>260</v>
       </c>
       <c r="D54" t="s">
         <v>39</v>
@@ -2571,7 +2571,7 @@
         <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s">
         <v>105</v>
@@ -2588,7 +2588,7 @@
         <v>38</v>
       </c>
       <c r="C55">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="D55" t="s">
         <v>39</v>
@@ -2603,7 +2603,7 @@
         <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s">
         <v>106</v>
@@ -2620,7 +2620,7 @@
         <v>38</v>
       </c>
       <c r="C56">
-        <v>260</v>
+        <v>1900</v>
       </c>
       <c r="D56" t="s">
         <v>39</v>
@@ -2697,7 +2697,7 @@
         <v>118</v>
       </c>
       <c r="C2">
-        <v>350</v>
+        <v>3400</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -2726,7 +2726,7 @@
         <v>118</v>
       </c>
       <c r="C3">
-        <v>3400</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -2755,7 +2755,7 @@
         <v>118</v>
       </c>
       <c r="C4">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -2813,7 +2813,7 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2842,7 +2842,7 @@
         <v>118</v>
       </c>
       <c r="C7">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -2871,7 +2871,7 @@
         <v>118</v>
       </c>
       <c r="C8">
-        <v>3700</v>
+        <v>3300</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -2900,7 +2900,7 @@
         <v>118</v>
       </c>
       <c r="C9">
-        <v>1700</v>
+        <v>3700</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -2929,7 +2929,7 @@
         <v>118</v>
       </c>
       <c r="C10">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -2958,7 +2958,7 @@
         <v>118</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -2987,7 +2987,7 @@
         <v>118</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -3016,7 +3016,7 @@
         <v>118</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>700</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -3031,7 +3031,7 @@
         <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I13" t="s">
         <v>137</v>
@@ -3045,10 +3045,10 @@
         <v>118</v>
       </c>
       <c r="C14">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -3060,7 +3060,7 @@
         <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I14" t="s">
         <v>138</v>
@@ -3074,7 +3074,7 @@
         <v>118</v>
       </c>
       <c r="C15">
-        <v>600</v>
+        <v>3.5</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
@@ -3103,7 +3103,7 @@
         <v>118</v>
       </c>
       <c r="C16">
-        <v>3.5</v>
+        <v>600</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
@@ -3132,7 +3132,7 @@
         <v>118</v>
       </c>
       <c r="C17">
-        <v>1300</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
@@ -3147,7 +3147,7 @@
         <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
         <v>141</v>
@@ -3161,10 +3161,10 @@
         <v>118</v>
       </c>
       <c r="C18">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
@@ -3176,7 +3176,7 @@
         <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
         <v>142</v>
@@ -3219,10 +3219,10 @@
         <v>118</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
@@ -3248,10 +3248,10 @@
         <v>118</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>700</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
@@ -3263,7 +3263,7 @@
         <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
         <v>145</v>
@@ -3277,7 +3277,7 @@
         <v>118</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
@@ -3292,7 +3292,7 @@
         <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
         <v>146</v>
@@ -3306,7 +3306,7 @@
         <v>118</v>
       </c>
       <c r="C23">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
@@ -3321,7 +3321,7 @@
         <v>119</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
         <v>147</v>
@@ -3335,7 +3335,7 @@
         <v>118</v>
       </c>
       <c r="C24">
-        <v>180</v>
+        <v>3.6</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -3350,7 +3350,7 @@
         <v>119</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="I24" t="s">
         <v>148</v>
@@ -3364,7 +3364,7 @@
         <v>118</v>
       </c>
       <c r="C25">
-        <v>110</v>
+        <v>3.2</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -3408,7 +3408,7 @@
         <v>119</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I26" t="s">
         <v>150</v>
@@ -3437,7 +3437,7 @@
         <v>119</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s">
         <v>151</v>
@@ -3451,7 +3451,7 @@
         <v>118</v>
       </c>
       <c r="C28">
-        <v>2000</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -3466,7 +3466,7 @@
         <v>119</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I28" t="s">
         <v>152</v>
@@ -3480,7 +3480,7 @@
         <v>118</v>
       </c>
       <c r="C29">
-        <v>3.2</v>
+        <v>2000</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
@@ -3495,7 +3495,7 @@
         <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I29" t="s">
         <v>153</v>
@@ -3524,7 +3524,7 @@
         <v>119</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I30" t="s">
         <v>154</v>
@@ -3553,7 +3553,7 @@
         <v>119</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s">
         <v>155</v>
@@ -3743,7 +3743,7 @@
         <v>38</v>
       </c>
       <c r="C6">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -3775,7 +3775,7 @@
         <v>38</v>
       </c>
       <c r="C7">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -3903,7 +3903,7 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="D11" t="s">
         <v>39</v>
@@ -3918,7 +3918,7 @@
         <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
         <v>74</v>
@@ -3935,7 +3935,7 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -3950,10 +3950,10 @@
         <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s">
         <v>109</v>
@@ -3999,7 +3999,7 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -4011,7 +4011,7 @@
         <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>51</v>
@@ -4031,7 +4031,7 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
@@ -4043,7 +4043,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
         <v>51</v>
@@ -4351,7 +4351,7 @@
         <v>38</v>
       </c>
       <c r="C25">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -4415,7 +4415,7 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -4623,7 +4623,7 @@
         <v>38</v>
       </c>
       <c r="C6">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -4655,7 +4655,7 @@
         <v>38</v>
       </c>
       <c r="C7">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -4719,7 +4719,7 @@
         <v>38</v>
       </c>
       <c r="C9">
-        <v>2600</v>
+        <v>590</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -4731,10 +4731,10 @@
         <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
         <v>71</v>
@@ -4751,7 +4751,7 @@
         <v>38</v>
       </c>
       <c r="C10">
-        <v>590</v>
+        <v>2600</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -4763,10 +4763,10 @@
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
         <v>72</v>
@@ -4943,7 +4943,7 @@
         <v>38</v>
       </c>
       <c r="C16">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
@@ -4975,7 +4975,7 @@
         <v>38</v>
       </c>
       <c r="C17">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
@@ -5103,7 +5103,7 @@
         <v>38</v>
       </c>
       <c r="C21">
-        <v>900</v>
+        <v>260</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -5118,7 +5118,7 @@
         <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
         <v>105</v>
@@ -5135,7 +5135,7 @@
         <v>38</v>
       </c>
       <c r="C22">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -5150,7 +5150,7 @@
         <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
         <v>106</v>
@@ -5167,7 +5167,7 @@
         <v>38</v>
       </c>
       <c r="C23">
-        <v>260</v>
+        <v>1900</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -5329,7 +5329,7 @@
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
         <v>110</v>
@@ -5407,7 +5407,7 @@
         <v>38</v>
       </c>
       <c r="C7">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -5422,7 +5422,7 @@
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
         <v>91</v>
@@ -5439,7 +5439,7 @@
         <v>38</v>
       </c>
       <c r="C8">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -5454,7 +5454,7 @@
         <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
         <v>92</v>
